--- a/Analiza chatbotova.xlsx
+++ b/Analiza chatbotova.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{143F35B5-FC22-4806-8EC4-CF4D22ACE640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkrcelic\Desktop\Lovro\Faks\Diplomski\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FC574-B89C-4172-81F3-76D65C6613EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
   <si>
     <t>Kategorija</t>
   </si>
@@ -301,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,10 +752,10 @@
   <dimension ref="A3:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
@@ -761,11 +766,11 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -836,7 +841,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -857,7 +862,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -890,7 +895,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -923,7 +928,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -956,7 +961,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -989,7 +994,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1022,7 +1027,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1055,7 +1060,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1088,7 +1093,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1121,7 +1126,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -1154,7 +1159,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -1187,7 +1192,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:20" ht="21" customHeight="1">
+    <row r="17" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1220,7 +1225,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:20" ht="21" customHeight="1">
+    <row r="18" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1253,7 +1258,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:20" ht="21" customHeight="1">
+    <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
@@ -1286,7 +1291,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:20" ht="21" customHeight="1">
+    <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
@@ -1319,7 +1324,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:20" ht="21" customHeight="1">
+    <row r="21" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
@@ -1329,18 +1334,30 @@
       <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:20" ht="21" customHeight="1">
+    <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1373,7 +1390,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:20" ht="52.5" customHeight="1">
+    <row r="23" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -1400,7 +1417,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:20" ht="72.75">
+    <row r="24" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
@@ -1433,7 +1450,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1">
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
@@ -1455,7 +1472,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:20" ht="21" customHeight="1">
+    <row r="26" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>86</v>
       </c>
@@ -1495,25 +1512,25 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="21" customHeight="1">
+    <row r="27" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
     </row>
   </sheetData>
